--- a/biology/Médecine/Oligospanioménorrhée/Oligospanioménorrhée.xlsx
+++ b/biology/Médecine/Oligospanioménorrhée/Oligospanioménorrhée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oligospaniom%C3%A9norrh%C3%A9e</t>
+          <t>Oligospanioménorrhée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une oligospanioménorrhée est une menstruation irrégulière, peu abondante et anormalement espacée des autres du fait de cycles plus longs.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oligospaniom%C3%A9norrh%C3%A9e</t>
+          <t>Oligospanioménorrhée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux symptômes[Lesquels ?], en particulier le peu d'abondance des périodes menstruelles, caractérisent aussi l'oligoménorrhée, en général. Mais elle se rencontre à l'adolescence lors des premières menstruations ou chez la femme non ménopausée présentant un prolactinome. On peut également rencontrer ce trouble chez la femme en hypothyroïdie. Elle peut aussi se rencontrer chez les femmes souffrant d'un syndrome des ovaires polykystiques (SOPK).
 </t>
